--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WEB\SCRAPE\bpjs-automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56754399-03EC-4244-91D9-092958C0D0CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35C0162-F5C3-4F9C-B1EC-4BAC681DF73B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{49AE851B-7CBF-4C8F-B7FA-EA796A05376A}"/>
   </bookViews>
@@ -31,34 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Nik</t>
-  </si>
-  <si>
-    <t>Nama Lengkap</t>
-  </si>
-  <si>
-    <t>Tempat Lahir</t>
-  </si>
-  <si>
-    <t>Tanggal Lahir</t>
-  </si>
-  <si>
-    <t>Ibu Kandung</t>
-  </si>
-  <si>
-    <t>Jenis Kelamin</t>
-  </si>
-  <si>
-    <t>Agama</t>
-  </si>
-  <si>
-    <t>Gol Darah</t>
-  </si>
-  <si>
-    <t>Status Kawin</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>kpj</t>
   </si>
@@ -412,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB487AE-4A71-42A5-92C8-972673C252B6}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:A101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -423,56 +396,509 @@
     <col min="1" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>14007458806</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+        <v>24090479205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>14007458814</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+        <v>24090479213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>14007458822</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+        <v>24090479221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>14007458830</v>
+        <v>24090479239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>24090479247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>24090479254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>24090479262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>24090479270</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>24090479288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>24090479296</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>24090479304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>24090479312</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>24090479320</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>24090479338</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>24090479346</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>24090479353</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>24090479361</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>24090479379</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>24090479387</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>24090479395</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>24090479403</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>24090479411</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>24090479429</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24090479437</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>24090479445</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>24090479452</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>24090479460</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>24090479478</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>24090479486</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>24090479494</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>24090479502</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>24090479510</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>24090479528</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>24090479536</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>24090479544</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>24090479551</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>24090479569</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>24090479577</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>24090479585</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>24090479593</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>24090479601</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>24090479619</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>24090479627</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>24090479635</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>24090479643</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>24090479650</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>24090479668</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>24090479676</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>24090479684</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>24090479692</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>24090479700</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>24090479718</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>24090479726</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>24090479734</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>24090479742</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>24090479759</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>24090479767</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>24090479775</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>24090479783</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>24090479791</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>24090479809</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>24090479817</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>24090479825</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>24090479833</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>24090479841</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>24090479858</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>24090479866</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>24090479874</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>24090479882</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>24090479890</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>24090479908</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>24090479916</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>24090479924</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>24090479932</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>24090479940</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>24090479957</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>24090479965</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>24090479973</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>24090479981</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>24090479999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>24090479007</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>24090479015</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>24090479023</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>24090479031</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>24090479049</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>24090479056</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>24090479064</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>24090479072</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>24090479080</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>24090479098</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>24090479106</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>24090479114</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>24090479122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>24090479130</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>24090479148</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>24090479155</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>24090479163</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>24090479171</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>24090479189</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>24090479197</v>
       </c>
     </row>
   </sheetData>
